--- a/resources/datafiles/TC_Master.xlsx
+++ b/resources/datafiles/TC_Master.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364F9DB-DD14-47FA-8AD6-0EDC084B494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592BD21-84C2-49B4-87E0-D6969848171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3138,7 +3138,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -3155,7 +3155,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
